--- a/data/trans_camb/P20-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8611885188887956</v>
+        <v>0.8235624116367338</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.613178550455615</v>
+        <v>-2.883748413539236</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.134359221565458</v>
+        <v>1.248920419699761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2015195795474427</v>
+        <v>-0.359560832790528</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.73182872485474</v>
+        <v>-3.800535437841389</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.049305695695353</v>
+        <v>-3.942616143078549</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7162409374968004</v>
+        <v>0.4218266383460384</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.797570511796582</v>
+        <v>-3.112200376826772</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.033994140196903</v>
+        <v>-1.243463742894233</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.900468082955988</v>
+        <v>5.976127155059544</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.958227647660834</v>
+        <v>1.764533827071979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.812404665191259</v>
+        <v>7.388980535833207</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.409792410823742</v>
+        <v>5.232754944975651</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.286330258087208</v>
+        <v>1.63066547656625</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.539483744628512</v>
+        <v>1.522631981807136</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.633678742882842</v>
+        <v>4.432283727535517</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6891123709038982</v>
+        <v>0.6558650148905187</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.301532422586225</v>
+        <v>3.061153071347207</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.06114307682560573</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7962987166477112</v>
+        <v>0.796298716647711</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2866653478789457</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1024734279882734</v>
+        <v>0.09534326937004868</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3815264822768838</v>
+        <v>-0.4059843688216349</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1605275617384942</v>
+        <v>0.1647525314811927</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01743988347141487</v>
+        <v>-0.03425231558102611</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3448030197576145</v>
+        <v>-0.3481602153465019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3719874561322697</v>
+        <v>-0.378774910277498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08552102790652913</v>
+        <v>0.03082561601659388</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3256076567654833</v>
+        <v>-0.3438898623688575</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1206328795945066</v>
+        <v>-0.1393838415748631</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.458759391905967</v>
+        <v>1.491645549280389</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5402281467570159</v>
+        <v>0.4798496698534711</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.855754836566621</v>
+        <v>1.823875353757803</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7012763531371566</v>
+        <v>0.6717061917632243</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1651604862713042</v>
+        <v>0.2132986922809317</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2130578339725228</v>
+        <v>0.2032639853420588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7069343975348503</v>
+        <v>0.6570895555524938</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.101116040701351</v>
+        <v>0.1051387929236781</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4797110971992699</v>
+        <v>0.454449947494401</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.768038753782046</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2977495202575092</v>
+        <v>0.2977495202575078</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.802666864191056</v>
@@ -878,7 +878,7 @@
         <v>1.437129961636999</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9634840799777611</v>
+        <v>0.963484079977759</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9051384353823539</v>
+        <v>-0.9146762324128394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8464962604026682</v>
+        <v>-0.7385539860055375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.05548592330309404</v>
+        <v>-0.1726295483354817</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.83723998338023</v>
+        <v>2.41242906326651</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3267138537582004</v>
+        <v>-0.4671020111989034</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.622359650124424</v>
+        <v>-1.523907807221613</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.210839260694989</v>
+        <v>1.235686159063058</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1006323365293373</v>
+        <v>0.0900448387634299</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3400457353609346</v>
+        <v>-0.3328268398859979</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.962176904822702</v>
+        <v>2.659247475612514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.894749516121902</v>
+        <v>2.71614750278374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.313561776741508</v>
+        <v>3.410560941317693</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.760312882734381</v>
+        <v>6.88504234414193</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.101659145030193</v>
+        <v>4.003628632687777</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.203580580051796</v>
+        <v>2.228406911248983</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.5792552362078</v>
+        <v>4.405005634221071</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.954750379592314</v>
+        <v>3.043181601270647</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.307180331433719</v>
+        <v>2.265234359756335</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.306313330760328</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.051585208235549</v>
+        <v>0.05158520823554876</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5889206637913217</v>
@@ -983,7 +983,7 @@
         <v>0.3019822090792603</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2024556293802151</v>
+        <v>0.2024556293802146</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2102903657293731</v>
+        <v>-0.2123723234208711</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1843543023085715</v>
+        <v>-0.1828199957844456</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03131755871162457</v>
+        <v>-0.04806793052483751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2569748395887091</v>
+        <v>0.3404999098955174</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05395913943687928</v>
+        <v>-0.0689893198204299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2398100385842462</v>
+        <v>-0.2227786496032285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2140777993258998</v>
+        <v>0.2276675636079199</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01333822871160519</v>
+        <v>0.003915482858921404</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.06207407956744528</v>
+        <v>-0.06580228260577804</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9914552048993536</v>
+        <v>0.854203391678983</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9249306115132224</v>
+        <v>0.9139530623133296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.133550978961148</v>
+        <v>1.15949474600109</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.386185514383242</v>
+        <v>1.405557372595607</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8415624769276184</v>
+        <v>0.8394501088475008</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4703213862494377</v>
+        <v>0.4601317562046583</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.100642504094056</v>
+        <v>1.060883393236997</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7019173364523834</v>
+        <v>0.7276691416787985</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5533956136650601</v>
+        <v>0.5297690858430192</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.5515629509698903</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.735255795588252</v>
+        <v>-1.735255795588251</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.003364994987620912</v>
@@ -1092,7 +1092,7 @@
         <v>1.019230871162591</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1024171012084373</v>
+        <v>0.1024171012084379</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5415380883739813</v>
+        <v>-0.5618492242247178</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3987451673672351</v>
+        <v>-0.4262958407459307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.0486333703018625</v>
+        <v>-0.1994453233802763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.781314804283235</v>
+        <v>-4.119598437987244</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.883973789251836</v>
+        <v>-2.147566390071476</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.016876163146372</v>
+        <v>-3.832933469492096</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.455821715040699</v>
+        <v>-1.349654042435935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4938532500392356</v>
+        <v>-0.4856987617373237</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.33964000832829</v>
+        <v>-1.237379893370763</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.081580252733489</v>
+        <v>3.028070401765606</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.28533195624607</v>
+        <v>3.321642342527204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.595661690452296</v>
+        <v>3.544219503840899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8273701592945506</v>
+        <v>0.9256017293459864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.244610231504502</v>
+        <v>3.317232048352065</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3805011501326593</v>
+        <v>0.3191453555593876</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.521637546796347</v>
+        <v>1.565885849020975</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.743017937466472</v>
+        <v>2.683043132332472</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.399177280929189</v>
+        <v>1.543541772537985</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.07153709805539139</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.22506073655219</v>
+        <v>-0.2250607365521899</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.0006170637802084967</v>
@@ -1197,7 +1197,7 @@
         <v>0.186903830935406</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.0187809740763852</v>
+        <v>0.01878097407638533</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.145381843504771</v>
+        <v>-0.144222964325076</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1104081680977045</v>
+        <v>-0.1051826938050732</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02509120018721915</v>
+        <v>-0.07329822617152267</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4266088302486124</v>
+        <v>-0.4479138059600201</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2168857306219396</v>
+        <v>-0.2445607443321825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.444524123901845</v>
+        <v>-0.4310698543489914</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2408925434454502</v>
+        <v>-0.228374178351869</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08443568458066343</v>
+        <v>-0.08348082181307297</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.219187963079519</v>
+        <v>-0.2093360132539984</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.1092254459062</v>
+        <v>1.13546520493024</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.211876520950921</v>
+        <v>1.224140083054652</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.288418003136193</v>
+        <v>1.250976863462316</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1330632075389671</v>
+        <v>0.1330105810943201</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4933443234877679</v>
+        <v>0.5104511071131866</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0582129865184196</v>
+        <v>0.06001181279406136</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3158842401343503</v>
+        <v>0.3374589432114604</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5417202542009357</v>
+        <v>0.552967601777539</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3033655087442241</v>
+        <v>0.3218898046961621</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.636045075839084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3467979479097771</v>
+        <v>0.3467979479097778</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.555864230387461</v>
@@ -1297,7 +1297,7 @@
         <v>0.2941115089153984</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.6774510936588957</v>
+        <v>0.6774510936588929</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.149549642034127</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.302303779620578</v>
+        <v>-1.493963795289509</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.462667355708555</v>
+        <v>-3.74180288903718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.282508120285502</v>
+        <v>-2.00954369546973</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.018644112705226</v>
+        <v>-1.229145275236978</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.829647976974321</v>
+        <v>-3.159808576868538</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.726283881635484</v>
+        <v>-2.974212466173835</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.349677091751261</v>
+        <v>-0.406911905998761</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.265872831751759</v>
+        <v>-2.364694545251171</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.45885689191606</v>
+        <v>-1.17069219621462</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.30586683902252</v>
+        <v>4.819827575759495</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.986248020315742</v>
+        <v>1.909982562551675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.461593177370173</v>
+        <v>2.713754679285477</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.707690259069659</v>
+        <v>6.424472692459121</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.035927342024206</v>
+        <v>3.725682932715916</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.364709831633592</v>
+        <v>3.322497359691893</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.696754150155354</v>
+        <v>4.483651277092634</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.085765355050568</v>
+        <v>1.936935135595104</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.471301710274693</v>
+        <v>2.503231902149802</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.1325201657851245</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07225544744657643</v>
+        <v>0.07225544744657657</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4259900612724227</v>
@@ -1402,7 +1402,7 @@
         <v>0.04902004504550771</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1129118790684252</v>
+        <v>0.1129118790684247</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4041269785236468</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2307550993218393</v>
+        <v>-0.2686092841098509</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5279971233504041</v>
+        <v>-0.5564286518425522</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3503502972541621</v>
+        <v>-0.3252879311332283</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1471235019983494</v>
+        <v>-0.1523709320862385</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3912180244126399</v>
+        <v>-0.4025490267533714</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3365157959436808</v>
+        <v>-0.3434773617845965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.07865407172978507</v>
+        <v>-0.07772396890449466</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.356084550982292</v>
+        <v>-0.3690581416733109</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2131018591617949</v>
+        <v>-0.1870563188684565</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.550123019599314</v>
+        <v>1.317203640866149</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6265646657252593</v>
+        <v>0.5616095574815112</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7031146721771276</v>
+        <v>0.8374641374437842</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.60493404097766</v>
+        <v>1.752869332472316</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.02206152798724</v>
+        <v>1.005428694462523</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.823979385039967</v>
+        <v>0.8224787985178151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.093809908198037</v>
+        <v>1.07628885039294</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5068475713947751</v>
+        <v>0.4555186248653597</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6169000482765135</v>
+        <v>0.5900741189444876</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>0.3817050610581046</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.8259454302058961</v>
+        <v>-0.8259454302058946</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.137389019949941</v>
@@ -1520,7 +1520,7 @@
         <v>0.5390707942008494</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.4489246909959353</v>
+        <v>0.448924690995936</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8797066243270398</v>
+        <v>1.086522263005243</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.347288347713925</v>
+        <v>-0.2563331202191287</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7876221469073077</v>
+        <v>0.7650342809539427</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8917261140439907</v>
+        <v>0.7971073043689497</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.916081557884294</v>
+        <v>-0.8645513169477694</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.991841825037388</v>
+        <v>-2.15091449411606</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.165985141543963</v>
+        <v>1.218857426067332</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3336898255538889</v>
+        <v>-0.2959114994669598</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3352909928659881</v>
+        <v>-0.3194112459899049</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.199670978747435</v>
+        <v>3.129501836851468</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.687760317251994</v>
+        <v>1.7165495241921</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.869427395531465</v>
+        <v>2.792959490212249</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.604076723660864</v>
+        <v>3.669061361928881</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.63030237123003</v>
+        <v>1.621879219952989</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3259466407228699</v>
+        <v>0.2189233427951731</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.016754956348915</v>
+        <v>2.95977308070192</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.321538969404546</v>
+        <v>1.393745403065462</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.255142598865354</v>
+        <v>1.216695493673141</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.05201419026612003</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.112549942715122</v>
+        <v>-0.1125499427151219</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3726639146314124</v>
@@ -1625,7 +1625,7 @@
         <v>0.09398955012647069</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.07827214941207131</v>
+        <v>0.07827214941207143</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1721122566999317</v>
+        <v>0.2334823196247718</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.08299795600788361</v>
+        <v>-0.06376522501017447</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1665291388765972</v>
+        <v>0.1599717627462783</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1100476055661058</v>
+        <v>0.1019010116283815</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1155606080979081</v>
+        <v>-0.102662526291615</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.246649710854214</v>
+        <v>-0.2603575992146315</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1863995250361943</v>
+        <v>0.1976272627629954</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.05487066958229055</v>
+        <v>-0.0535948949890054</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.05405021558356151</v>
+        <v>-0.05252008966125935</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8702867796886214</v>
+        <v>0.8653595953987085</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4587379310616003</v>
+        <v>0.471962052661083</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7806155225478425</v>
+        <v>0.7614448293302438</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5411357770694545</v>
+        <v>0.545806306293952</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2461248839667625</v>
+        <v>0.2455872226302186</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05151629066033742</v>
+        <v>0.03474083914013031</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5625827106713223</v>
+        <v>0.5472604803769074</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2453635720860806</v>
+        <v>0.2596326879103635</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2379572542232806</v>
+        <v>0.22880847736997</v>
       </c>
     </row>
     <row r="34">
